--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_488__Reeval_Taguchi_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_488__Reeval_Taguchi_Modell_1.2.xlsx
@@ -5417,19 +5417,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>18.77278900146484</c:v>
+                  <c:v>18.77278709411621</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.330991268157959</c:v>
+                  <c:v>5.330986976623535</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.05352210998535</c:v>
+                  <c:v>24.05352401733398</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>58.91323471069336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95.09488677978516</c:v>
+                  <c:v>95.09487915039062</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>69.79319000244141</c:v>
@@ -5438,25 +5438,25 @@
                   <c:v>-0.09747929871082306</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.005832321476191282</c:v>
+                  <c:v>0.005826430395245552</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>93.28909301757812</c:v>
+                  <c:v>93.28910064697266</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.05122722312808037</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>91.94211578369141</c:v>
+                  <c:v>91.94212341308594</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0631658062338829</c:v>
+                  <c:v>0.06316286325454712</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.1727044582366943</c:v>
+                  <c:v>-0.1726956218481064</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45.98081588745117</c:v>
+                  <c:v>45.98080825805664</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>93.44915771484375</c:v>
@@ -5465,25 +5465,25 @@
                   <c:v>83.28989410400391</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>74.57174682617188</c:v>
+                  <c:v>74.57175445556641</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>96.88085174560547</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.08903127163648605</c:v>
+                  <c:v>-0.08902537822723389</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>98.54309844970703</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>26.05995750427246</c:v>
+                  <c:v>26.05995178222656</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>94.66714477539062</c:v>
+                  <c:v>94.66712951660156</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.1450804620981216</c:v>
+                  <c:v>-0.1450863629579544</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>-0.0647505521774292</c:v>
@@ -5495,7 +5495,7 @@
                   <c:v>-0.01916712895035744</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.08863066881895065</c:v>
+                  <c:v>-0.08862477540969849</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.06501270830631256</c:v>
@@ -5504,28 +5504,28 @@
                   <c:v>78.77748107910156</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.02450753189623356</c:v>
+                  <c:v>-0.02451047860085964</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>95.41588592529297</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>96.19348907470703</c:v>
+                  <c:v>96.19349670410156</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.01663978956639767</c:v>
+                  <c:v>-0.01663389801979065</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>92.16115570068359</c:v>
+                  <c:v>92.16114044189453</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.3771869838237762</c:v>
+                  <c:v>0.3771884441375732</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>93.71355438232422</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.2781376540660858</c:v>
+                  <c:v>0.2781383991241455</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>83.22173309326172</c:v>
@@ -5534,16 +5534,16 @@
                   <c:v>75.14692687988281</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.004678726196289</c:v>
+                  <c:v>9.00468635559082</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>96.14788818359375</c:v>
+                  <c:v>96.14789581298828</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-0.0854729637503624</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>95.73050689697266</c:v>
+                  <c:v>95.73051452636719</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>96.72200775146484</c:v>
@@ -5555,25 +5555,25 @@
                   <c:v>-0.3706734776496887</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>98.30657958984375</c:v>
+                  <c:v>98.30657196044922</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.1601112186908722</c:v>
+                  <c:v>-0.1601104736328125</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.06987297534942627</c:v>
+                  <c:v>0.06988181173801422</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>96.79732513427734</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>80.50385284423828</c:v>
+                  <c:v>80.50384521484375</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0.05856180936098099</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>93.42435455322266</c:v>
+                  <c:v>93.42434692382812</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>94.32118988037109</c:v>
@@ -5591,7 +5591,7 @@
                   <c:v>94.81008148193359</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.01758606918156147</c:v>
+                  <c:v>-0.01758238673210144</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>90.54679870605469</c:v>
@@ -5603,7 +5603,7 @@
                   <c:v>-0.7141522765159607</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.079902172088623</c:v>
+                  <c:v>6.079898834228516</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>0.06517177075147629</c:v>
@@ -5612,7 +5612,7 @@
                   <c:v>94.66423034667969</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.6742134094238281</c:v>
+                  <c:v>-0.6742193102836609</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>39.85555648803711</c:v>
@@ -5636,7 +5636,7 @@
                   <c:v>96.597412109375</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.02586546167731285</c:v>
+                  <c:v>-0.02586251683533192</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>96.66792297363281</c:v>
@@ -5651,10 +5651,10 @@
                   <c:v>89.20815277099609</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.04586030915379524</c:v>
+                  <c:v>-0.04586619883775711</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>11.63139820098877</c:v>
+                  <c:v>11.63139152526855</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>95.38953399658203</c:v>
@@ -5666,7 +5666,7 @@
                   <c:v>0.01466328091919422</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.6683140993118286</c:v>
+                  <c:v>-0.6683118939399719</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>95.99254608154297</c:v>
@@ -5675,7 +5675,7 @@
                   <c:v>-1.325501084327698</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.6005052328109741</c:v>
+                  <c:v>-0.6005082130432129</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>97.67387390136719</c:v>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>18.77278900146484</v>
+        <v>18.77278709411621</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.330991268157959</v>
+        <v>5.330986976623535</v>
       </c>
       <c r="G3">
         <v>99</v>
@@ -6443,7 +6443,7 @@
         <v>31.3344</v>
       </c>
       <c r="F4">
-        <v>24.05352210998535</v>
+        <v>24.05352401733398</v>
       </c>
       <c r="G4">
         <v>99</v>
@@ -6507,7 +6507,7 @@
         <v>93.8986</v>
       </c>
       <c r="F6">
-        <v>95.09488677978516</v>
+        <v>95.09487915039062</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6591,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.005832321476191282</v>
+        <v>0.005826430395245552</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6611,7 +6611,7 @@
         <v>90.36060000000001</v>
       </c>
       <c r="F10">
-        <v>93.28909301757812</v>
+        <v>93.28910064697266</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6651,7 +6651,7 @@
         <v>91.3809</v>
       </c>
       <c r="F12">
-        <v>91.94211578369141</v>
+        <v>91.94212341308594</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.0631658062338829</v>
+        <v>0.06316286325454712</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-0.1727044582366943</v>
+        <v>-0.1726956218481064</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6711,7 +6711,7 @@
         <v>77.4808</v>
       </c>
       <c r="F15">
-        <v>45.98081588745117</v>
+        <v>45.98080825805664</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6771,7 +6771,7 @@
         <v>63.9475</v>
       </c>
       <c r="F18">
-        <v>74.57174682617188</v>
+        <v>74.57175445556641</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-0.08903127163648605</v>
+        <v>-0.08902537822723389</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>33.6509</v>
       </c>
       <c r="F22">
-        <v>26.05995750427246</v>
+        <v>26.05995178222656</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6871,7 +6871,7 @@
         <v>93.91419999999999</v>
       </c>
       <c r="F23">
-        <v>94.66714477539062</v>
+        <v>94.66712951660156</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-0.1450804620981216</v>
+        <v>-0.1450863629579544</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>-0.08863066881895065</v>
+        <v>-0.08862477540969849</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>-0.02450753189623356</v>
+        <v>-0.02451047860085964</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7071,7 +7071,7 @@
         <v>94.9969</v>
       </c>
       <c r="F33">
-        <v>96.19348907470703</v>
+        <v>96.19349670410156</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>-0.01663978956639767</v>
+        <v>-0.01663389801979065</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7111,7 +7111,7 @@
         <v>97.8249</v>
       </c>
       <c r="F35">
-        <v>92.16115570068359</v>
+        <v>92.16114044189453</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0.3771869838237762</v>
+        <v>0.3771884441375732</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0.2781376540660858</v>
+        <v>0.2781383991241455</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>69.4635</v>
       </c>
       <c r="F41">
-        <v>9.004678726196289</v>
+        <v>9.00468635559082</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>94.5993</v>
       </c>
       <c r="F42">
-        <v>96.14788818359375</v>
+        <v>96.14789581298828</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>97.666</v>
       </c>
       <c r="F44">
-        <v>95.73050689697266</v>
+        <v>95.73051452636719</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>96.9224</v>
       </c>
       <c r="F48">
-        <v>98.30657958984375</v>
+        <v>98.30657196044922</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>-0.1601112186908722</v>
+        <v>-0.1601104736328125</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0.06987297534942627</v>
+        <v>0.06988181173801422</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>81.8018</v>
       </c>
       <c r="F52">
-        <v>80.50385284423828</v>
+        <v>80.50384521484375</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>93.3826</v>
       </c>
       <c r="F54">
-        <v>93.42435455322266</v>
+        <v>93.42434692382812</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>-0.01758606918156147</v>
+        <v>-0.01758238673210144</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>6.079902172088623</v>
+        <v>6.079898834228516</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-0.6742134094238281</v>
+        <v>-0.6742193102836609</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>-0.02586546167731285</v>
+        <v>-0.02586251683533192</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>-0.04586030915379524</v>
+        <v>-0.04586619883775711</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>87.7663</v>
       </c>
       <c r="F81">
-        <v>11.63139820098877</v>
+        <v>11.63139152526855</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>-0.6683140993118286</v>
+        <v>-0.6683118939399719</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>-0.6005052328109741</v>
+        <v>-0.6005082130432129</v>
       </c>
     </row>
     <row r="89" spans="1:6">
